--- a/epsxe/HHMBTNI/EVENT_BASE/COMMAND_BASE.xlsx
+++ b/epsxe/HHMBTNI/EVENT_BASE/COMMAND_BASE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COMMAND" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="582">
   <si>
     <t>0</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>SPRITE1</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
   </si>
   <si>
     <t>2</t>
@@ -1797,10 +1800,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1851,7 +1854,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1867,8 +1892,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,53 +1976,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,54 +1992,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2130,13 +2133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,37 +2151,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,7 +2181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,7 +2199,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,19 +2259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,37 +2289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,31 +2301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,59 +2381,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2454,7 +2407,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2473,16 +2426,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2494,130 +2497,130 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3121,7 +3124,7 @@
   <dimension ref="A1:O286"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -3213,17 +3216,19 @@
       <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="83" t="s">
+        <v>9</v>
+      </c>
       <c r="M2" s="74"/>
       <c r="N2" s="74"/>
       <c r="O2" s="74"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
@@ -3234,7 +3239,7 @@
       <c r="I3" s="45"/>
       <c r="J3" s="74"/>
       <c r="K3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="83"/>
       <c r="M3" s="74"/>
@@ -3243,7 +3248,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
@@ -3255,7 +3260,7 @@
       <c r="I4" s="78"/>
       <c r="J4" s="74"/>
       <c r="K4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="83"/>
       <c r="M4" s="74"/>
@@ -3264,7 +3269,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="79"/>
@@ -3276,7 +3281,7 @@
       <c r="I5" s="79"/>
       <c r="J5" s="74"/>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="83"/>
       <c r="M5" s="74"/>
@@ -3285,7 +3290,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -3297,7 +3302,7 @@
       <c r="I6" s="78"/>
       <c r="J6" s="74"/>
       <c r="K6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="83"/>
       <c r="M6" s="74"/>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3318,7 +3323,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="74"/>
       <c r="K7" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="83"/>
       <c r="M7" s="74"/>
@@ -3327,7 +3332,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3339,7 +3344,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="74"/>
       <c r="K8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="83"/>
       <c r="M8" s="74"/>
@@ -3348,7 +3353,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3360,7 +3365,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="74"/>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="83"/>
       <c r="M9" s="74"/>
@@ -3369,7 +3374,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3381,7 +3386,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="74"/>
       <c r="K10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="83"/>
       <c r="M10" s="74"/>
@@ -3390,7 +3395,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="1"/>
@@ -3402,7 +3407,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="74"/>
       <c r="K11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="74"/>
@@ -3411,7 +3416,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -3423,7 +3428,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="74"/>
       <c r="K12" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="28"/>
       <c r="M12" s="74"/>
@@ -3432,7 +3437,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
@@ -3444,7 +3449,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="74"/>
       <c r="K13" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="28"/>
       <c r="M13" s="74"/>
@@ -3453,7 +3458,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3465,7 +3470,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="74"/>
       <c r="K14" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="74"/>
@@ -3474,7 +3479,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3486,7 +3491,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="74"/>
       <c r="K15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="74"/>
@@ -3495,7 +3500,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3507,7 +3512,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="74"/>
       <c r="K16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="74"/>
@@ -3516,7 +3521,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3528,7 +3533,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="74"/>
       <c r="K17" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="74"/>
@@ -3537,7 +3542,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3549,7 +3554,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="74"/>
       <c r="K18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="74"/>
@@ -3558,7 +3563,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3570,7 +3575,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="74"/>
       <c r="K19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" s="28"/>
       <c r="M19" s="74"/>
@@ -3579,7 +3584,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3591,7 +3596,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="74"/>
       <c r="K20" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="74"/>
@@ -3600,7 +3605,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:15">
       <c r="A21" s="74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3612,7 +3617,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="74"/>
       <c r="K21" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="74"/>
@@ -3621,7 +3626,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:15">
       <c r="A22" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3640,7 +3645,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:15">
       <c r="A23" s="74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3678,7 +3683,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:15">
       <c r="A25" s="74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3697,7 +3702,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:15">
       <c r="A26" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3716,7 +3721,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:15">
       <c r="A27" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3735,7 +3740,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:15">
       <c r="A28" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3754,7 +3759,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:15">
       <c r="A29" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3773,7 +3778,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:15">
       <c r="A30" s="74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3792,7 +3797,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:15">
       <c r="A31" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3811,7 +3816,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:15">
       <c r="A32" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3830,7 +3835,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:15">
       <c r="A33" s="74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -3849,7 +3854,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:15">
       <c r="A34" s="74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3868,7 +3873,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:15">
       <c r="A35" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -3887,7 +3892,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:15">
       <c r="A36" s="74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -3906,7 +3911,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:15">
       <c r="A37" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -3925,7 +3930,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:15">
       <c r="A38" s="74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3944,7 +3949,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1" spans="1:15">
       <c r="A39" s="74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -3963,7 +3968,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:15">
       <c r="A40" s="74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -3982,7 +3987,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1" spans="1:15">
       <c r="A41" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4001,7 +4006,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:15">
       <c r="A42" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4039,7 +4044,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:15">
       <c r="A44" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4058,7 +4063,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:15">
       <c r="A45" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4077,7 +4082,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:15">
       <c r="A46" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4096,7 +4101,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1" spans="1:15">
       <c r="A47" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4115,7 +4120,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:15">
       <c r="A48" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -4134,7 +4139,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1" spans="1:15">
       <c r="A49" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4153,7 +4158,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:15">
       <c r="A50" s="74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -4172,7 +4177,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" spans="1:15">
       <c r="A51" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4191,7 +4196,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:15">
       <c r="A52" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -4210,7 +4215,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1" spans="1:15">
       <c r="A53" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4229,7 +4234,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" spans="1:15">
       <c r="A54" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4248,7 +4253,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1" spans="1:15">
       <c r="A55" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4267,7 +4272,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:15">
       <c r="A56" s="74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4286,7 +4291,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:15">
       <c r="A57" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -4305,7 +4310,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:15">
       <c r="A58" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -4324,7 +4329,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1" spans="1:15">
       <c r="A59" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4343,7 +4348,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:15">
       <c r="A60" s="74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -4362,7 +4367,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1" spans="1:15">
       <c r="A61" s="74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -4381,7 +4386,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:15">
       <c r="A62" s="74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -4400,7 +4405,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1" spans="1:15">
       <c r="A63" s="74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -4419,7 +4424,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:15">
       <c r="A64" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -4438,7 +4443,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1" spans="1:15">
       <c r="A65" s="74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4457,7 +4462,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:15">
       <c r="A66" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -4476,7 +4481,7 @@
     </row>
     <row r="67" ht="15.75" customHeight="1" spans="1:15">
       <c r="A67" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4495,7 +4500,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:15">
       <c r="A68" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1" spans="1:15">
       <c r="A69" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -4533,7 +4538,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:15">
       <c r="A70" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -4552,7 +4557,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1" spans="1:15">
       <c r="A71" s="74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -4571,7 +4576,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:15">
       <c r="A72" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -4590,7 +4595,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1" spans="1:15">
       <c r="A73" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -4609,7 +4614,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:15">
       <c r="A74" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -4628,7 +4633,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1" spans="1:15">
       <c r="A75" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -4647,7 +4652,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:15">
       <c r="A76" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -4666,7 +4671,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" spans="1:15">
       <c r="A77" s="74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -4685,7 +4690,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:15">
       <c r="A78" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -4704,7 +4709,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" spans="1:15">
       <c r="A79" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -4723,7 +4728,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:15">
       <c r="A80" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -4742,7 +4747,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1" spans="1:15">
       <c r="A81" s="74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -4761,7 +4766,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:15">
       <c r="A82" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -4780,7 +4785,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:15">
       <c r="A83" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -4799,7 +4804,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:15">
       <c r="A84" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -4818,7 +4823,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1" spans="1:15">
       <c r="A85" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -4837,7 +4842,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:15">
       <c r="A86" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -4856,7 +4861,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1" spans="1:15">
       <c r="A87" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -4875,7 +4880,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:15">
       <c r="A88" s="74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -4894,7 +4899,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" spans="1:15">
       <c r="A89" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -4913,7 +4918,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:15">
       <c r="A90" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -4932,7 +4937,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:15">
       <c r="A91" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -4951,7 +4956,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:15">
       <c r="A92" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -4970,7 +4975,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:15">
       <c r="A93" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -4989,7 +4994,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:15">
       <c r="A94" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -5008,7 +5013,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:15">
       <c r="A95" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -5027,7 +5032,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:15">
       <c r="A96" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -5046,7 +5051,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:15">
       <c r="A97" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -5065,7 +5070,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:15">
       <c r="A98" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -5084,7 +5089,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:15">
       <c r="A99" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -5103,7 +5108,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:15">
       <c r="A100" s="74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -5122,7 +5127,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="1:15">
       <c r="A101" s="74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -5160,7 +5165,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:15">
       <c r="A103" s="74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -5179,7 +5184,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:15">
       <c r="A104" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -5198,7 +5203,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:15">
       <c r="A105" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -5217,7 +5222,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:15">
       <c r="A106" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -5236,7 +5241,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:15">
       <c r="A107" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -5255,7 +5260,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:15">
       <c r="A108" s="74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -5274,7 +5279,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:15">
       <c r="A109" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -5293,7 +5298,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:15">
       <c r="A110" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -5312,7 +5317,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:15">
       <c r="A111" s="74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -5331,7 +5336,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:15">
       <c r="A112" s="74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -5350,7 +5355,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:15">
       <c r="A113" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -5369,7 +5374,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:15">
       <c r="A114" s="74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -5388,7 +5393,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:15">
       <c r="A115" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -5407,7 +5412,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:15">
       <c r="A116" s="74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -5426,7 +5431,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:15">
       <c r="A117" s="74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -5445,7 +5450,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:15">
       <c r="A118" s="74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -5464,7 +5469,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:15">
       <c r="A119" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -5483,7 +5488,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:15">
       <c r="A120" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -5521,7 +5526,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:15">
       <c r="A122" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -5540,7 +5545,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:15">
       <c r="A123" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -5559,7 +5564,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:15">
       <c r="A124" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -5578,7 +5583,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:15">
       <c r="A125" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -5597,7 +5602,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:15">
       <c r="A126" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -5616,7 +5621,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:15">
       <c r="A127" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -5635,7 +5640,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:15">
       <c r="A128" s="74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -5654,7 +5659,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:15">
       <c r="A129" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -5673,7 +5678,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:15">
       <c r="A130" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -5692,7 +5697,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:15">
       <c r="A131" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -5711,7 +5716,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:15">
       <c r="A132" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -5730,7 +5735,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:15">
       <c r="A133" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -5749,7 +5754,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:15">
       <c r="A134" s="74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5768,7 +5773,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:15">
       <c r="A135" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5787,7 +5792,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:15">
       <c r="A136" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -5806,7 +5811,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="1:15">
       <c r="A137" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -5825,7 +5830,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:15">
       <c r="A138" s="74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5844,7 +5849,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:15">
       <c r="A139" s="74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5863,7 +5868,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:15">
       <c r="A140" s="74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -5882,7 +5887,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:15">
       <c r="A141" s="74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -5901,7 +5906,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:15">
       <c r="A142" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -5920,7 +5925,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:15">
       <c r="A143" s="74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5939,7 +5944,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:15">
       <c r="A144" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -5958,7 +5963,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:15">
       <c r="A145" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -5977,7 +5982,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:15">
       <c r="A146" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -5996,7 +6001,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:15">
       <c r="A147" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6015,7 +6020,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:15">
       <c r="A148" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -6034,7 +6039,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:15">
       <c r="A149" s="74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -6053,7 +6058,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:15">
       <c r="A150" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -6072,7 +6077,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:15">
       <c r="A151" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -6091,7 +6096,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:15">
       <c r="A152" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6110,7 +6115,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:15">
       <c r="A153" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -6129,7 +6134,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:15">
       <c r="A154" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -6148,7 +6153,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:15">
       <c r="A155" s="74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -6167,7 +6172,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:15">
       <c r="A156" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -6186,7 +6191,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:15">
       <c r="A157" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -6205,7 +6210,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:15">
       <c r="A158" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -6224,7 +6229,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:15">
       <c r="A159" s="74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -6243,7 +6248,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:15">
       <c r="A160" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -6262,7 +6267,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:15">
       <c r="A161" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -6281,7 +6286,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:15">
       <c r="A162" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -6300,7 +6305,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:15">
       <c r="A163" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -6319,7 +6324,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:15">
       <c r="A164" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -6338,7 +6343,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:15">
       <c r="A165" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -6357,7 +6362,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:15">
       <c r="A166" s="74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -6376,7 +6381,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:15">
       <c r="A167" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -6395,7 +6400,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:15">
       <c r="A168" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -6414,7 +6419,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:15">
       <c r="A169" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -6433,7 +6438,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:15">
       <c r="A170" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -6452,7 +6457,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:15">
       <c r="A171" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -6471,7 +6476,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:15">
       <c r="A172" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -6490,7 +6495,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:15">
       <c r="A173" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -6509,7 +6514,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:15">
       <c r="A174" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -6528,7 +6533,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:15">
       <c r="A175" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -6547,7 +6552,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:15">
       <c r="A176" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -6566,7 +6571,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:15">
       <c r="A177" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -6585,7 +6590,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:15">
       <c r="A178" s="74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -6604,7 +6609,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:15">
       <c r="A179" s="74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -6623,7 +6628,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:15">
       <c r="A180" s="74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -6642,7 +6647,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:15">
       <c r="A181" s="74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -6661,7 +6666,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:15">
       <c r="A182" s="74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -6680,7 +6685,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:15">
       <c r="A183" s="74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -6699,7 +6704,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:15">
       <c r="A184" s="74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -6718,7 +6723,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:15">
       <c r="A185" s="74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -6737,7 +6742,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:15">
       <c r="A186" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -6756,7 +6761,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:15">
       <c r="A187" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -6775,7 +6780,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:15">
       <c r="A188" s="74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -6794,7 +6799,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:15">
       <c r="A189" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -6813,7 +6818,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:15">
       <c r="A190" s="74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -6832,7 +6837,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:15">
       <c r="A191" s="74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -6851,7 +6856,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:15">
       <c r="A192" s="74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -6870,7 +6875,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:15">
       <c r="A193" s="74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -6889,7 +6894,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:15">
       <c r="A194" s="74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -6908,7 +6913,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:15">
       <c r="A195" s="74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -6927,7 +6932,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:15">
       <c r="A196" s="74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -6946,7 +6951,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:15">
       <c r="A197" s="74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -6965,7 +6970,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:15">
       <c r="A198" s="74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -6984,7 +6989,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:15">
       <c r="A199" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -7003,7 +7008,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:15">
       <c r="A200" s="74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -7022,7 +7027,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:15">
       <c r="A201" s="74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -7041,7 +7046,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:15">
       <c r="A202" s="74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -7060,7 +7065,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:15">
       <c r="A203" s="74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -7079,7 +7084,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:15">
       <c r="A204" s="74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -7098,7 +7103,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:15">
       <c r="A205" s="74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -7117,7 +7122,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:15">
       <c r="A206" s="74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -7136,7 +7141,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:15">
       <c r="A207" s="74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -7155,7 +7160,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:15">
       <c r="A208" s="74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -7174,7 +7179,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:15">
       <c r="A209" s="74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -7193,7 +7198,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:15">
       <c r="A210" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -7212,7 +7217,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:15">
       <c r="A211" s="74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -7231,7 +7236,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:15">
       <c r="A212" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -7250,7 +7255,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="1:15">
       <c r="A213" s="74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -7269,7 +7274,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="1:15">
       <c r="A214" s="74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -7288,7 +7293,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:15">
       <c r="A215" s="74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -7307,7 +7312,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:15">
       <c r="A216" s="74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -7326,7 +7331,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:15">
       <c r="A217" s="74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -7345,7 +7350,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:15">
       <c r="A218" s="74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -7364,7 +7369,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:15">
       <c r="A219" s="74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -7383,7 +7388,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:15">
       <c r="A220" s="74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -7402,7 +7407,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:15">
       <c r="A221" s="74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -7421,7 +7426,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:15">
       <c r="A222" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -7440,7 +7445,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:15">
       <c r="A223" s="74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -7459,7 +7464,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:15">
       <c r="A224" s="74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -7478,7 +7483,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:15">
       <c r="A225" s="74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -7497,7 +7502,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:15">
       <c r="A226" s="74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -7516,7 +7521,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:15">
       <c r="A227" s="74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -7535,7 +7540,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:15">
       <c r="A228" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -7554,7 +7559,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:15">
       <c r="A229" s="74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -7573,7 +7578,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:15">
       <c r="A230" s="74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -7592,7 +7597,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:15">
       <c r="A231" s="74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -7611,7 +7616,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:15">
       <c r="A232" s="74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -7630,7 +7635,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:15">
       <c r="A233" s="74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -7649,7 +7654,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:15">
       <c r="A234" s="74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -7668,7 +7673,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:15">
       <c r="A235" s="74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -7687,7 +7692,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="1:15">
       <c r="A236" s="74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -7706,7 +7711,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="1:15">
       <c r="A237" s="74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -7725,7 +7730,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="1:15">
       <c r="A238" s="74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -7744,7 +7749,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:15">
       <c r="A239" s="74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -7763,7 +7768,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:15">
       <c r="A240" s="74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -7782,7 +7787,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:15">
       <c r="A241" s="74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -7801,7 +7806,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:15">
       <c r="A242" s="74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -7820,7 +7825,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:15">
       <c r="A243" s="74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -7839,7 +7844,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:15">
       <c r="A244" s="74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -7858,7 +7863,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:15">
       <c r="A245" s="74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -7877,7 +7882,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:15">
       <c r="A246" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -7896,7 +7901,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:15">
       <c r="A247" s="74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -7915,7 +7920,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:15">
       <c r="A248" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -7934,7 +7939,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:15">
       <c r="A249" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -7953,7 +7958,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:15">
       <c r="A250" s="74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -7972,7 +7977,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:15">
       <c r="A251" s="74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -7991,7 +7996,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:15">
       <c r="A252" s="74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -8010,7 +8015,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:15">
       <c r="A253" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -8029,7 +8034,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:15">
       <c r="A254" s="74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -8048,7 +8053,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:15">
       <c r="A255" s="74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -8067,7 +8072,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:15">
       <c r="A256" s="74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -8086,7 +8091,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:15">
       <c r="A257" s="74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -8105,7 +8110,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:15">
       <c r="A258" s="74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -8124,7 +8129,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:15">
       <c r="A259" s="74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -8143,7 +8148,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:15">
       <c r="A260" s="74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -8162,7 +8167,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:15">
       <c r="A261" s="74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -8181,7 +8186,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:15">
       <c r="A262" s="74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -8200,7 +8205,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:15">
       <c r="A263" s="74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -8219,7 +8224,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:15">
       <c r="A264" s="74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -8238,7 +8243,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:15">
       <c r="A265" s="74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -8257,7 +8262,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:15">
       <c r="A266" s="74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -8276,7 +8281,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:15">
       <c r="A267" s="74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -8295,7 +8300,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:15">
       <c r="A268" s="74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -8314,7 +8319,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:15">
       <c r="A269" s="74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -8333,7 +8338,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:15">
       <c r="A270" s="74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -8352,7 +8357,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:15">
       <c r="A271" s="74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -8371,7 +8376,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:15">
       <c r="A272" s="74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -8390,7 +8395,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="1:15">
       <c r="A273" s="74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -8409,7 +8414,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="1:15">
       <c r="A274" s="74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -8428,7 +8433,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="1:15">
       <c r="A275" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B275" s="84"/>
       <c r="C275" s="11"/>
@@ -8447,7 +8452,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:15">
       <c r="A276" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B276" s="84"/>
       <c r="C276" s="11"/>
@@ -8466,7 +8471,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:15">
       <c r="A277" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -8485,7 +8490,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:15">
       <c r="A278" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -8521,7 +8526,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:15">
       <c r="A280" s="74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -8540,7 +8545,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:15">
       <c r="A281" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -8559,7 +8564,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:15">
       <c r="A282" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -8578,7 +8583,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:15">
       <c r="A283" s="74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -8597,7 +8602,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:15">
       <c r="A284" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -8674,8 +8679,8 @@
   <sheetPr/>
   <dimension ref="A1:L286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8763,14 +8768,16 @@
       <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="83" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
@@ -8781,13 +8788,13 @@
       <c r="I3" s="45"/>
       <c r="J3" s="74"/>
       <c r="K3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
@@ -8799,13 +8806,13 @@
       <c r="I4" s="78"/>
       <c r="J4" s="74"/>
       <c r="K4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="79"/>
@@ -8817,13 +8824,13 @@
       <c r="I5" s="79"/>
       <c r="J5" s="74"/>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76"/>
@@ -8835,13 +8842,13 @@
       <c r="I6" s="78"/>
       <c r="J6" s="74"/>
       <c r="K6" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="83"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8853,13 +8860,13 @@
       <c r="I7" s="10"/>
       <c r="J7" s="74"/>
       <c r="K7" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8871,13 +8878,13 @@
       <c r="I8" s="10"/>
       <c r="J8" s="74"/>
       <c r="K8" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -8889,13 +8896,13 @@
       <c r="I9" s="10"/>
       <c r="J9" s="74"/>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="83"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -8907,13 +8914,13 @@
       <c r="I10" s="10"/>
       <c r="J10" s="74"/>
       <c r="K10" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="83"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="1"/>
@@ -8925,13 +8932,13 @@
       <c r="I11" s="10"/>
       <c r="J11" s="74"/>
       <c r="K11" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="83"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -8943,13 +8950,13 @@
       <c r="I12" s="10"/>
       <c r="J12" s="74"/>
       <c r="K12" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="1"/>
@@ -8961,13 +8968,13 @@
       <c r="I13" s="10"/>
       <c r="J13" s="74"/>
       <c r="K13" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -8979,13 +8986,13 @@
       <c r="I14" s="10"/>
       <c r="J14" s="74"/>
       <c r="K14" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -8997,13 +9004,13 @@
       <c r="I15" s="10"/>
       <c r="J15" s="74"/>
       <c r="K15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -9015,13 +9022,13 @@
       <c r="I16" s="10"/>
       <c r="J16" s="74"/>
       <c r="K16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -9033,13 +9040,13 @@
       <c r="I17" s="10"/>
       <c r="J17" s="74"/>
       <c r="K17" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -9051,13 +9058,13 @@
       <c r="I18" s="10"/>
       <c r="J18" s="74"/>
       <c r="K18" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -9069,13 +9076,13 @@
       <c r="I19" s="10"/>
       <c r="J19" s="74"/>
       <c r="K19" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -9087,13 +9094,13 @@
       <c r="I20" s="10"/>
       <c r="J20" s="74"/>
       <c r="K20" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -9105,13 +9112,13 @@
       <c r="I21" s="10"/>
       <c r="J21" s="74"/>
       <c r="K21" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -9127,7 +9134,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -9159,7 +9166,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -9175,7 +9182,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -9191,7 +9198,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -9207,7 +9214,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -9223,7 +9230,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -9239,7 +9246,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -9255,7 +9262,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -9271,7 +9278,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9287,7 +9294,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -9303,7 +9310,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -9319,7 +9326,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9335,7 +9342,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9351,7 +9358,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9367,7 +9374,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9383,7 +9390,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9399,7 +9406,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9415,7 +9422,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9431,7 +9438,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -9463,7 +9470,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -9479,7 +9486,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -9495,7 +9502,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9511,7 +9518,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -9527,7 +9534,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -9543,7 +9550,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -9559,7 +9566,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -9575,7 +9582,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -9591,7 +9598,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -9607,7 +9614,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -9623,7 +9630,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -9639,7 +9646,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -9655,7 +9662,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -9671,7 +9678,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -9687,7 +9694,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -9703,7 +9710,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -9719,7 +9726,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -9735,7 +9742,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -9751,7 +9758,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -9767,7 +9774,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -9783,7 +9790,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -9799,7 +9806,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -9815,7 +9822,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -9831,7 +9838,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -9847,7 +9854,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -9863,7 +9870,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -9879,7 +9886,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -9895,7 +9902,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -9911,7 +9918,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -9927,7 +9934,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -9943,7 +9950,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -9959,7 +9966,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -9975,7 +9982,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -9991,7 +9998,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -10007,7 +10014,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -10023,7 +10030,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -10039,7 +10046,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -10055,7 +10062,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -10071,7 +10078,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -10087,7 +10094,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -10103,7 +10110,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -10119,7 +10126,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -10135,7 +10142,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -10151,7 +10158,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -10167,7 +10174,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -10183,7 +10190,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -10199,7 +10206,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -10215,7 +10222,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -10231,7 +10238,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -10247,7 +10254,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -10263,7 +10270,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -10279,7 +10286,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -10295,7 +10302,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -10311,7 +10318,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -10327,7 +10334,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -10343,7 +10350,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -10359,7 +10366,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -10375,7 +10382,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -10407,7 +10414,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -10423,7 +10430,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -10439,7 +10446,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -10455,7 +10462,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -10471,7 +10478,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -10487,7 +10494,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -10503,7 +10510,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -10519,7 +10526,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -10535,7 +10542,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -10551,7 +10558,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -10567,7 +10574,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -10583,7 +10590,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -10599,7 +10606,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -10615,7 +10622,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -10631,7 +10638,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -10647,7 +10654,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -10663,7 +10670,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -10679,7 +10686,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -10711,7 +10718,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -10727,7 +10734,7 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -10743,7 +10750,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -10759,7 +10766,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -10775,7 +10782,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -10791,7 +10798,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -10807,7 +10814,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -10823,7 +10830,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -10839,7 +10846,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -10855,7 +10862,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -10871,7 +10878,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -10887,7 +10894,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -10903,7 +10910,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -10919,7 +10926,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -10935,7 +10942,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -10951,7 +10958,7 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -10967,7 +10974,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -10983,7 +10990,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -10999,7 +11006,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -11015,7 +11022,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -11031,7 +11038,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -11047,7 +11054,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -11063,7 +11070,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -11079,7 +11086,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -11095,7 +11102,7 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -11111,7 +11118,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -11127,7 +11134,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -11143,7 +11150,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -11159,7 +11166,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -11175,7 +11182,7 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -11191,7 +11198,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -11207,7 +11214,7 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -11223,7 +11230,7 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -11239,7 +11246,7 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -11255,7 +11262,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -11271,7 +11278,7 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -11287,7 +11294,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -11303,7 +11310,7 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -11319,7 +11326,7 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -11335,7 +11342,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -11351,7 +11358,7 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -11367,7 +11374,7 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -11383,7 +11390,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -11399,7 +11406,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="74" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -11415,7 +11422,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -11431,7 +11438,7 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -11447,7 +11454,7 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -11463,7 +11470,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -11479,7 +11486,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -11495,7 +11502,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -11511,7 +11518,7 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -11527,7 +11534,7 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -11543,7 +11550,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -11559,7 +11566,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -11575,7 +11582,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -11591,7 +11598,7 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -11607,7 +11614,7 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -11623,7 +11630,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -11639,7 +11646,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -11655,7 +11662,7 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -11671,7 +11678,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="74" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -11687,7 +11694,7 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -11703,7 +11710,7 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -11719,7 +11726,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -11735,7 +11742,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -11751,7 +11758,7 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -11767,7 +11774,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -11783,7 +11790,7 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -11799,7 +11806,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -11815,7 +11822,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -11831,7 +11838,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="74" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -11847,7 +11854,7 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="74" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -11863,7 +11870,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -11879,7 +11886,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -11895,7 +11902,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="74" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -11911,7 +11918,7 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="74" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -11927,7 +11934,7 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="74" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -11943,7 +11950,7 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -11959,7 +11966,7 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -11975,7 +11982,7 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" s="74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -11991,7 +11998,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" s="74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -12007,7 +12014,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" s="74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -12023,7 +12030,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" s="74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -12039,7 +12046,7 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -12055,7 +12062,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" s="74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -12071,7 +12078,7 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -12087,7 +12094,7 @@
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -12103,7 +12110,7 @@
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -12119,7 +12126,7 @@
     </row>
     <row r="210" spans="1:12">
       <c r="A210" s="74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -12135,7 +12142,7 @@
     </row>
     <row r="211" spans="1:12">
       <c r="A211" s="74" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -12151,7 +12158,7 @@
     </row>
     <row r="212" spans="1:12">
       <c r="A212" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -12167,7 +12174,7 @@
     </row>
     <row r="213" spans="1:12">
       <c r="A213" s="74" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -12183,7 +12190,7 @@
     </row>
     <row r="214" spans="1:12">
       <c r="A214" s="74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -12199,7 +12206,7 @@
     </row>
     <row r="215" spans="1:12">
       <c r="A215" s="74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -12215,7 +12222,7 @@
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -12231,7 +12238,7 @@
     </row>
     <row r="217" spans="1:12">
       <c r="A217" s="74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -12247,7 +12254,7 @@
     </row>
     <row r="218" spans="1:12">
       <c r="A218" s="74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -12263,7 +12270,7 @@
     </row>
     <row r="219" spans="1:12">
       <c r="A219" s="74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -12279,7 +12286,7 @@
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -12295,7 +12302,7 @@
     </row>
     <row r="221" spans="1:12">
       <c r="A221" s="74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -12311,7 +12318,7 @@
     </row>
     <row r="222" spans="1:12">
       <c r="A222" s="74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -12327,7 +12334,7 @@
     </row>
     <row r="223" spans="1:12">
       <c r="A223" s="74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -12343,7 +12350,7 @@
     </row>
     <row r="224" spans="1:12">
       <c r="A224" s="74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -12359,7 +12366,7 @@
     </row>
     <row r="225" spans="1:12">
       <c r="A225" s="74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -12375,7 +12382,7 @@
     </row>
     <row r="226" spans="1:12">
       <c r="A226" s="74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -12391,7 +12398,7 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" s="74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -12407,7 +12414,7 @@
     </row>
     <row r="228" spans="1:12">
       <c r="A228" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -12423,7 +12430,7 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -12439,7 +12446,7 @@
     </row>
     <row r="230" spans="1:12">
       <c r="A230" s="74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -12455,7 +12462,7 @@
     </row>
     <row r="231" spans="1:12">
       <c r="A231" s="74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -12471,7 +12478,7 @@
     </row>
     <row r="232" spans="1:12">
       <c r="A232" s="74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -12487,7 +12494,7 @@
     </row>
     <row r="233" spans="1:12">
       <c r="A233" s="74" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
@@ -12503,7 +12510,7 @@
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -12519,7 +12526,7 @@
     </row>
     <row r="235" spans="1:12">
       <c r="A235" s="74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -12535,7 +12542,7 @@
     </row>
     <row r="236" spans="1:12">
       <c r="A236" s="74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -12551,7 +12558,7 @@
     </row>
     <row r="237" spans="1:12">
       <c r="A237" s="74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -12567,7 +12574,7 @@
     </row>
     <row r="238" spans="1:12">
       <c r="A238" s="74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -12583,7 +12590,7 @@
     </row>
     <row r="239" spans="1:12">
       <c r="A239" s="74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -12599,7 +12606,7 @@
     </row>
     <row r="240" spans="1:12">
       <c r="A240" s="74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -12615,7 +12622,7 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -12631,7 +12638,7 @@
     </row>
     <row r="242" spans="1:12">
       <c r="A242" s="74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -12647,7 +12654,7 @@
     </row>
     <row r="243" spans="1:12">
       <c r="A243" s="74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -12663,7 +12670,7 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -12679,7 +12686,7 @@
     </row>
     <row r="245" spans="1:12">
       <c r="A245" s="74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -12695,7 +12702,7 @@
     </row>
     <row r="246" spans="1:12">
       <c r="A246" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -12711,7 +12718,7 @@
     </row>
     <row r="247" spans="1:12">
       <c r="A247" s="74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -12727,7 +12734,7 @@
     </row>
     <row r="248" spans="1:12">
       <c r="A248" s="74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -12743,7 +12750,7 @@
     </row>
     <row r="249" spans="1:12">
       <c r="A249" s="74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
@@ -12759,7 +12766,7 @@
     </row>
     <row r="250" spans="1:12">
       <c r="A250" s="74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -12775,7 +12782,7 @@
     </row>
     <row r="251" spans="1:12">
       <c r="A251" s="74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -12791,7 +12798,7 @@
     </row>
     <row r="252" spans="1:12">
       <c r="A252" s="74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -12807,7 +12814,7 @@
     </row>
     <row r="253" spans="1:12">
       <c r="A253" s="74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -12823,7 +12830,7 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -12839,7 +12846,7 @@
     </row>
     <row r="255" spans="1:12">
       <c r="A255" s="74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -12855,7 +12862,7 @@
     </row>
     <row r="256" spans="1:12">
       <c r="A256" s="74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -12871,7 +12878,7 @@
     </row>
     <row r="257" spans="1:12">
       <c r="A257" s="74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -12887,7 +12894,7 @@
     </row>
     <row r="258" spans="1:12">
       <c r="A258" s="74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -12903,7 +12910,7 @@
     </row>
     <row r="259" spans="1:12">
       <c r="A259" s="74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -12919,7 +12926,7 @@
     </row>
     <row r="260" spans="1:12">
       <c r="A260" s="74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -12935,7 +12942,7 @@
     </row>
     <row r="261" spans="1:12">
       <c r="A261" s="74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -12951,7 +12958,7 @@
     </row>
     <row r="262" spans="1:12">
       <c r="A262" s="74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -12967,7 +12974,7 @@
     </row>
     <row r="263" spans="1:12">
       <c r="A263" s="74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -12983,7 +12990,7 @@
     </row>
     <row r="264" spans="1:12">
       <c r="A264" s="74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -12999,7 +13006,7 @@
     </row>
     <row r="265" spans="1:12">
       <c r="A265" s="74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -13015,7 +13022,7 @@
     </row>
     <row r="266" spans="1:12">
       <c r="A266" s="74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
@@ -13031,7 +13038,7 @@
     </row>
     <row r="267" spans="1:12">
       <c r="A267" s="74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -13047,7 +13054,7 @@
     </row>
     <row r="268" spans="1:12">
       <c r="A268" s="74" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -13063,7 +13070,7 @@
     </row>
     <row r="269" spans="1:12">
       <c r="A269" s="74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -13079,7 +13086,7 @@
     </row>
     <row r="270" spans="1:12">
       <c r="A270" s="74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -13095,7 +13102,7 @@
     </row>
     <row r="271" spans="1:12">
       <c r="A271" s="74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -13111,7 +13118,7 @@
     </row>
     <row r="272" spans="1:12">
       <c r="A272" s="74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -13127,7 +13134,7 @@
     </row>
     <row r="273" spans="1:12">
       <c r="A273" s="74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -13143,7 +13150,7 @@
     </row>
     <row r="274" spans="1:12">
       <c r="A274" s="74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -13159,7 +13166,7 @@
     </row>
     <row r="275" spans="1:12">
       <c r="A275" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B275" s="84"/>
       <c r="C275" s="11"/>
@@ -13175,7 +13182,7 @@
     </row>
     <row r="276" spans="1:12">
       <c r="A276" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B276" s="84"/>
       <c r="C276" s="11"/>
@@ -13191,7 +13198,7 @@
     </row>
     <row r="277" spans="1:12">
       <c r="A277" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -13207,7 +13214,7 @@
     </row>
     <row r="278" spans="1:12">
       <c r="A278" s="74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -13237,7 +13244,7 @@
     </row>
     <row r="280" spans="1:12">
       <c r="A280" s="74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -13253,7 +13260,7 @@
     </row>
     <row r="281" spans="1:12">
       <c r="A281" s="74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -13269,7 +13276,7 @@
     </row>
     <row r="282" spans="1:12">
       <c r="A282" s="74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -13285,7 +13292,7 @@
     </row>
     <row r="283" spans="1:12">
       <c r="A283" s="74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -13301,7 +13308,7 @@
     </row>
     <row r="284" spans="1:12">
       <c r="A284" s="74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -13370,8 +13377,8 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
@@ -13392,37 +13399,37 @@
   <sheetData>
     <row r="1" ht="73" customHeight="1" spans="1:21">
       <c r="A1" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L1" s="58"/>
       <c r="M1" s="58"/>
@@ -13467,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>2</v>
@@ -13480,19 +13487,19 @@
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
@@ -13511,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>2</v>
@@ -13524,16 +13531,16 @@
         <v>6</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="59"/>
@@ -13553,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>2</v>
@@ -13566,16 +13573,16 @@
         <v>6</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J5" s="61"/>
       <c r="K5" s="59"/>
@@ -13595,7 +13602,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>2</v>
@@ -13608,16 +13615,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="59"/>
@@ -13637,7 +13644,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>2</v>
@@ -13650,19 +13657,19 @@
         <v>6</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
@@ -13681,7 +13688,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
@@ -13707,7 +13714,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>2</v>
@@ -13719,16 +13726,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
@@ -13747,7 +13754,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>2</v>
@@ -13759,19 +13766,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="59"/>
@@ -13790,7 +13797,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>2</v>
@@ -13802,16 +13809,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="59"/>
@@ -13831,7 +13838,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>2</v>
@@ -13843,16 +13850,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J12" s="61"/>
       <c r="K12" s="59"/>
@@ -13872,7 +13879,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>2</v>
@@ -13884,16 +13891,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
@@ -13913,7 +13920,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -13939,7 +13946,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -13965,7 +13972,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" s="29">
         <v>-1</v>
@@ -13977,16 +13984,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
@@ -14005,7 +14012,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
@@ -14031,7 +14038,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
@@ -14057,7 +14064,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
@@ -14083,7 +14090,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
@@ -14109,7 +14116,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
@@ -14135,7 +14142,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
@@ -14161,7 +14168,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
@@ -14187,7 +14194,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21"/>
@@ -14213,7 +14220,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -14239,7 +14246,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
@@ -14265,7 +14272,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
@@ -14291,7 +14298,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
@@ -14317,7 +14324,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -14343,7 +14350,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
@@ -14369,7 +14376,7 @@
         <v>23</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="32">
         <v>-1</v>
@@ -14381,19 +14388,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G31" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J31" s="60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
@@ -14412,7 +14419,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="32">
         <v>-1</v>
@@ -14424,16 +14431,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J32" s="62"/>
       <c r="K32" s="59"/>
@@ -14453,7 +14460,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33" s="35">
         <v>-1</v>
@@ -14466,19 +14473,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
@@ -14497,7 +14504,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
@@ -14523,7 +14530,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
@@ -14549,7 +14556,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C36" s="37" t="s">
         <v>2</v>
@@ -14564,7 +14571,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>6</v>
@@ -14589,7 +14596,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C37" s="37" t="s">
         <v>2</v>
@@ -14630,7 +14637,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
@@ -14656,7 +14663,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="21"/>
@@ -14682,7 +14689,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
@@ -14708,7 +14715,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -14734,7 +14741,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
@@ -14760,7 +14767,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
@@ -14786,7 +14793,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
@@ -14838,7 +14845,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -14889,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K47" s="59"/>
       <c r="L47" s="59"/>
@@ -14908,7 +14915,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="44"/>
@@ -14935,7 +14942,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
@@ -14961,7 +14968,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -14976,7 +14983,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C51" s="46" t="s">
         <v>2</v>
@@ -14988,19 +14995,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I51" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J51" s="63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:10">
@@ -15008,7 +15015,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C52" s="46" t="s">
         <v>2</v>
@@ -15021,16 +15028,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J52" s="63"/>
     </row>
@@ -15039,7 +15046,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C53" s="48">
         <v>-1</v>
@@ -15069,7 +15076,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C54" s="48">
         <v>-1</v>
@@ -15082,16 +15089,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H54" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I54" s="46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J54" s="63"/>
     </row>
@@ -15100,7 +15107,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C55" s="46" t="s">
         <v>2</v>
@@ -15113,16 +15120,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G55" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I55" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J55" s="63"/>
     </row>
@@ -15131,7 +15138,7 @@
         <v>40</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C56" s="52" t="s">
         <v>2</v>
@@ -15143,19 +15150,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G56" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I56" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J56" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" spans="1:10">
@@ -15163,7 +15170,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>2</v>
@@ -15176,16 +15183,16 @@
         <v>1</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G57" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H57" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I57" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J57" s="63"/>
     </row>
@@ -15194,7 +15201,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C58" s="54">
         <v>-1</v>
@@ -15207,16 +15214,16 @@
         <v>1</v>
       </c>
       <c r="F58" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G58" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I58" s="52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J58" s="63"/>
     </row>
@@ -15225,7 +15232,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C59" s="54">
         <v>-1</v>
@@ -15255,7 +15262,7 @@
         <v>40</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C60" s="52" t="s">
         <v>2</v>
@@ -15268,16 +15275,16 @@
         <v>1</v>
       </c>
       <c r="F60" s="54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G60" s="55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I60" s="55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J60" s="63"/>
     </row>
@@ -15286,7 +15293,7 @@
         <v>41</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
@@ -15301,7 +15308,7 @@
         <v>42</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="21"/>
@@ -15316,7 +15323,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
@@ -15331,7 +15338,7 @@
         <v>44</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
@@ -15346,7 +15353,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
@@ -15361,7 +15368,7 @@
         <v>46</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
@@ -15376,7 +15383,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="21"/>
@@ -15391,7 +15398,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="21"/>
@@ -15406,7 +15413,7 @@
         <v>49</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C69" s="20"/>
       <c r="D69" s="21"/>
@@ -15421,7 +15428,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
@@ -15436,7 +15443,7 @@
         <v>51</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C71" s="32">
         <v>-1</v>
@@ -15449,16 +15456,16 @@
         <v>1</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I71" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:9">
@@ -15466,7 +15473,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
@@ -15481,7 +15488,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
@@ -15496,7 +15503,7 @@
         <v>54</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
@@ -15511,7 +15518,7 @@
         <v>55</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
@@ -15526,7 +15533,7 @@
         <v>56</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
@@ -15541,7 +15548,7 @@
         <v>57</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
@@ -15556,7 +15563,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
@@ -15571,7 +15578,7 @@
         <v>59</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
@@ -15586,7 +15593,7 @@
         <v>60</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
@@ -15601,7 +15608,7 @@
         <v>61</v>
       </c>
       <c r="B81" s="64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C81" s="64" t="s">
         <v>2</v>
@@ -15613,16 +15620,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G81" s="64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I81" s="64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:10">
@@ -15630,7 +15637,7 @@
         <v>62</v>
       </c>
       <c r="B82" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C82" s="46" t="s">
         <v>2</v>
@@ -15643,19 +15650,19 @@
         <v>6</v>
       </c>
       <c r="F82" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G82" s="46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H82" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I82" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J82" s="60" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1" spans="1:10">
@@ -15663,7 +15670,7 @@
         <v>62</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C83" s="46" t="s">
         <v>2</v>
@@ -15676,16 +15683,16 @@
         <v>6</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G83" s="46" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H83" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I83" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J83" s="61"/>
     </row>
@@ -15694,7 +15701,7 @@
         <v>62</v>
       </c>
       <c r="B84" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C84" s="46" t="s">
         <v>2</v>
@@ -15707,16 +15714,16 @@
         <v>6</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G84" s="46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H84" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J84" s="61"/>
     </row>
@@ -15725,7 +15732,7 @@
         <v>62</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C85" s="46" t="s">
         <v>2</v>
@@ -15738,16 +15745,16 @@
         <v>6</v>
       </c>
       <c r="F85" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G85" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H85" s="46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I85" s="46" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J85" s="62"/>
     </row>
@@ -15756,7 +15763,7 @@
         <v>63</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
@@ -15771,7 +15778,7 @@
         <v>64</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C87" s="66" t="s">
         <v>2</v>
@@ -15783,16 +15790,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G87" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H87" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1" outlineLevel="1" spans="1:9">
@@ -15800,7 +15807,7 @@
         <v>64</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C88" s="66" t="s">
         <v>2</v>
@@ -15812,16 +15819,16 @@
         <v>0</v>
       </c>
       <c r="F88" s="66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G88" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I88" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1" outlineLevel="1" spans="1:9">
@@ -15829,7 +15836,7 @@
         <v>64</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C89" s="66" t="s">
         <v>2</v>
@@ -15841,16 +15848,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G89" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I89" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" outlineLevel="1" spans="1:9">
@@ -15858,7 +15865,7 @@
         <v>64</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C90" s="66" t="s">
         <v>2</v>
@@ -15870,16 +15877,16 @@
         <v>0</v>
       </c>
       <c r="F90" s="66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G90" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H90" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I90" s="66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1" outlineLevel="1" spans="1:9">
@@ -15887,7 +15894,7 @@
         <v>65</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
@@ -15917,7 +15924,7 @@
         <v>67</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
@@ -15932,7 +15939,7 @@
         <v>68</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
@@ -15947,7 +15954,7 @@
         <v>69</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
@@ -15962,7 +15969,7 @@
         <v>70</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
@@ -15977,7 +15984,7 @@
         <v>71</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
@@ -15992,7 +15999,7 @@
         <v>72</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
@@ -16007,7 +16014,7 @@
         <v>73</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
@@ -16022,7 +16029,7 @@
         <v>74</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
@@ -16037,7 +16044,7 @@
         <v>75</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
@@ -16052,7 +16059,7 @@
         <v>76</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C102" s="69">
         <v>-1</v>
@@ -16064,16 +16071,16 @@
         <v>0</v>
       </c>
       <c r="F102" s="69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G102" s="68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H102" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I102" s="68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:9">
@@ -16081,7 +16088,7 @@
         <v>77</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
@@ -16096,7 +16103,7 @@
         <v>78</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
@@ -16111,7 +16118,7 @@
         <v>79</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
@@ -16126,7 +16133,7 @@
         <v>80</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
@@ -16141,7 +16148,7 @@
         <v>81</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
@@ -16156,7 +16163,7 @@
         <v>82</v>
       </c>
       <c r="B108" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C108" s="71" t="s">
         <v>2</v>
@@ -16169,19 +16176,19 @@
         <v>6</v>
       </c>
       <c r="F108" s="73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G108" s="71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H108" s="71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I108" s="71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J108" s="60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:10">
@@ -16189,7 +16196,7 @@
         <v>83</v>
       </c>
       <c r="B109" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C109" s="71" t="s">
         <v>2</v>
@@ -16202,16 +16209,16 @@
         <v>6</v>
       </c>
       <c r="F109" s="73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G109" s="71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H109" s="71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I109" s="71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J109" s="61"/>
     </row>
@@ -16220,7 +16227,7 @@
         <v>84</v>
       </c>
       <c r="B110" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C110" s="71" t="s">
         <v>2</v>
@@ -16233,16 +16240,16 @@
         <v>6</v>
       </c>
       <c r="F110" s="73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G110" s="71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H110" s="71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I110" s="71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J110" s="61"/>
     </row>
@@ -16251,7 +16258,7 @@
         <v>85</v>
       </c>
       <c r="B111" s="71" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C111" s="71" t="s">
         <v>2</v>
@@ -16264,16 +16271,16 @@
         <v>6</v>
       </c>
       <c r="F111" s="73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G111" s="71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H111" s="71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I111" s="71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J111" s="62"/>
     </row>
@@ -16282,7 +16289,7 @@
         <v>83</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
@@ -16297,7 +16304,7 @@
         <v>84</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
@@ -16312,7 +16319,7 @@
         <v>85</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
@@ -16327,7 +16334,7 @@
         <v>86</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
@@ -16342,7 +16349,7 @@
         <v>87</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
@@ -16357,7 +16364,7 @@
         <v>88</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
@@ -16372,7 +16379,7 @@
         <v>89</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
@@ -16387,7 +16394,7 @@
         <v>90</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
@@ -16402,7 +16409,7 @@
         <v>91</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
@@ -16417,7 +16424,7 @@
         <v>92</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
@@ -16432,7 +16439,7 @@
         <v>93</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
@@ -16447,7 +16454,7 @@
         <v>94</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
@@ -16462,7 +16469,7 @@
         <v>95</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
@@ -16477,7 +16484,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
@@ -16492,7 +16499,7 @@
         <v>97</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
@@ -16507,7 +16514,7 @@
         <v>98</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="21"/>
@@ -16565,1282 +16572,1282 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
